--- a/data/trans_bre/P0901-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P0901-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4824696981283599</v>
+        <v>-0.4215336477313707</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.429106578087108</v>
+        <v>-2.075813637226948</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.001283463085268</v>
+        <v>-1.065377467721753</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.5966518025094064</v>
+        <v>-0.5304950286602484</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1711029521090997</v>
+        <v>-0.1686196463004838</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4652484313901881</v>
+        <v>-0.3869978597908938</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4185451056026314</v>
+        <v>-0.4356728905989917</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5321973908587181</v>
+        <v>-0.4594546428672558</v>
       </c>
     </row>
     <row r="6">
@@ -692,29 +692,27 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.703102383320628</v>
+        <v>4.611436420374096</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.267494542554612</v>
+        <v>3.494618431823267</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.433602042589575</v>
+        <v>3.391950731428573</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.824816086170981</v>
+        <v>7.701658117429703</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.104269908995111</v>
+        <v>2.129396524192301</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.206197016077089</v>
+        <v>1.329006882264584</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.741448541168607</v>
-      </c>
-      <c r="J6" s="6" t="n">
-        <v>14.13000082347075</v>
-      </c>
+        <v>3.057024929898407</v>
+      </c>
+      <c r="J6" s="6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -760,28 +758,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.676887915212094</v>
+        <v>2.838541265049414</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.9586667100714032</v>
+        <v>-0.8628968109916134</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.9695373190945162</v>
+        <v>-1.174621044042703</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.068725025050366</v>
+        <v>-5.536274776337549</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6006048586120653</v>
+        <v>0.6754103565910422</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2441986323368044</v>
+        <v>-0.1991536023143597</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.197621017848194</v>
+        <v>-0.2286505046331605</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5684588341544941</v>
+        <v>-0.5947192921596532</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +790,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.820349568710854</v>
+        <v>7.890845869211898</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.638013872065062</v>
+        <v>3.683752317085599</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.336287864009524</v>
+        <v>4.349849530520474</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.633406139360146</v>
+        <v>1.666196882006293</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.367744699263026</v>
+        <v>3.539578597050617</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.447810890039658</v>
+        <v>1.443378149351499</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.287931100264228</v>
+        <v>1.308342446632654</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3758520120006115</v>
+        <v>0.3647497814299799</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +858,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.582450017246197</v>
+        <v>1.401405758821065</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.068029076381349</v>
+        <v>2.225554826257417</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.79889086831828</v>
+        <v>2.04494414133888</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2603616106846935</v>
+        <v>0.03009113190884836</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2154167521728925</v>
+        <v>0.2062050915409483</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2584212215812242</v>
+        <v>0.2665631352815946</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.298208569348464</v>
+        <v>0.3486187866478805</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.02685775105795482</v>
+        <v>-0.01721220485672929</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +890,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.167157451570401</v>
+        <v>7.154624826806967</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.362966431081537</v>
+        <v>8.563396488359119</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.284314329561978</v>
+        <v>7.349880607122356</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.075930735522427</v>
+        <v>6.160060379335545</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.856803022673269</v>
+        <v>2.107628622714299</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.619552021234399</v>
+        <v>1.723984847440538</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.264173603612497</v>
+        <v>2.222778346976249</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.065884166635203</v>
+        <v>1.050925378089768</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +958,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.145331446810616</v>
+        <v>3.226991857125377</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.737644242190731</v>
+        <v>3.005813514971886</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.176121137633355</v>
+        <v>-0.4087538056367582</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.096130631099522</v>
+        <v>-0.8508213324661809</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.34497199181641</v>
+        <v>0.3838155806520916</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2211740126369662</v>
+        <v>0.29525480010817</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0926412570037153</v>
+        <v>-0.02284423070588819</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.06027979069635107</v>
+        <v>-0.05491416439812735</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +990,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.91009277463574</v>
+        <v>10.51996106057359</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.98012282889085</v>
+        <v>10.61995256889447</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.823525664763533</v>
+        <v>6.904626654793433</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.051786374879444</v>
+        <v>6.335259617770972</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.934018973730228</v>
+        <v>1.900311428992913</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.50467160297777</v>
+        <v>1.487806948052262</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7820624134799431</v>
+        <v>0.8254010313386955</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5349079663944029</v>
+        <v>0.5456203718933926</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1035,7 @@
         <v>11.10291420266826</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.187036619780599</v>
+        <v>5.187036619780605</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1496131238917306</v>
@@ -1049,7 +1047,7 @@
         <v>0.8382229517318726</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2621899760795985</v>
+        <v>0.2621899760795988</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1058,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.032589315291345</v>
+        <v>-3.153247478155488</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.159876656439107</v>
+        <v>7.436653212912529</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.588060465844497</v>
+        <v>6.062162990448152</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9328385386618762</v>
+        <v>1.109676507754016</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1624927849567281</v>
+        <v>-0.1838148630746733</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3815709981442397</v>
+        <v>0.3941367280186781</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3497104951195432</v>
+        <v>0.3725435933855951</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.04298248551230575</v>
+        <v>0.04753576679418269</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1090,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.591961338413683</v>
+        <v>7.591835385880988</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.3000421658564</v>
+        <v>18.22186091450293</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.53130381479142</v>
+        <v>16.52979593829677</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.398573835268049</v>
+        <v>9.554026094156862</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5921733806709405</v>
+        <v>0.5488794732388075</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.349035456414179</v>
+        <v>1.401722959979805</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.557868317130698</v>
+        <v>1.506487399479561</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5435330915903771</v>
+        <v>0.5359380107732888</v>
       </c>
     </row>
     <row r="19">
@@ -1149,7 +1147,7 @@
         <v>0.9784475237473426</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.7302664730881678</v>
+        <v>0.7302664730881675</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1158,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>8.100970140360403</v>
+        <v>8.999746939084211</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>6.258306069026492</v>
+        <v>5.736746394334154</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12.29002405423164</v>
+        <v>11.90743112361023</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8.105325993792404</v>
+        <v>7.993278117896106</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3533285261509231</v>
+        <v>0.3917275688397109</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1950046035635641</v>
+        <v>0.1879304244838093</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5106089489687978</v>
+        <v>0.5514382506988763</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.4071664571628426</v>
+        <v>0.4009440423641137</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1190,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>20.9634770823651</v>
+        <v>21.82736088742327</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>21.11976720588757</v>
+        <v>20.61361866854156</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>25.71380179828037</v>
+        <v>25.52703016189349</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17.12980074736393</v>
+        <v>16.94530556783203</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.354020090255411</v>
+        <v>1.433098342769729</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9446977924334518</v>
+        <v>0.9152200225344368</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.613072147105848</v>
+        <v>1.687235181700399</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.162360522460942</v>
+        <v>1.128353936234874</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1235,7 @@
         <v>19.8539505308796</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21.151782096634</v>
+        <v>21.15178209663399</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2542452387162883</v>
@@ -1249,7 +1247,7 @@
         <v>0.5213990031400659</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.5983585056474697</v>
+        <v>0.5983585056474692</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1258,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.2049099709031847</v>
+        <v>0.03990901019587681</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.927196942938566</v>
+        <v>6.242798641185979</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12.00730434882836</v>
+        <v>11.83015953871145</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15.39051559914393</v>
+        <v>15.97531922946641</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.005571161986325862</v>
+        <v>0.003039561082429153</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.108808216409864</v>
+        <v>0.1156701589689966</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.290549783562992</v>
+        <v>0.2666268350865257</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3899279044671333</v>
+        <v>0.4136148367973014</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1290,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>17.25505989813248</v>
+        <v>18.16410859878508</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>23.04336040737567</v>
+        <v>23.39069795070613</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>27.93055163230772</v>
+        <v>27.80897245453567</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26.42796450514691</v>
+        <v>26.93234839791887</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5541499970286308</v>
+        <v>0.6015690917470049</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5542224945051094</v>
+        <v>0.5757552708771571</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8487717062550679</v>
+        <v>0.8195892247346942</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.8573301025570653</v>
+        <v>0.8752814790795054</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1335,7 @@
         <v>8.968174375959919</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7.107825465586267</v>
+        <v>7.107825465586274</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8061036104462377</v>
@@ -1349,7 +1347,7 @@
         <v>0.8558108798549701</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.5217170363097789</v>
+        <v>0.5217170363097795</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1358,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>5.588010806083687</v>
+        <v>5.782426680923313</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>7.260763766111388</v>
+        <v>7.073234437127382</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7.060840376358335</v>
+        <v>7.204488867759569</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5.572264599718442</v>
+        <v>5.514126059553003</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5755110769234731</v>
+        <v>0.5933970436061536</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5555478126417194</v>
+        <v>0.5486260575006845</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.613647976739415</v>
+        <v>0.6291426793522614</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3756001348009965</v>
+        <v>0.3763567760409254</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1390,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>8.949461623966478</v>
+        <v>8.846152796312298</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>10.71137511201645</v>
+        <v>10.77404515415018</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>10.58793375226928</v>
+        <v>10.83414815964805</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8.718303692462657</v>
+        <v>8.719845025595385</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.093725343462644</v>
+        <v>1.060371148844281</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9494828405171061</v>
+        <v>0.9755451419288335</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.087375836610933</v>
+        <v>1.100172878021533</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6868643754256517</v>
+        <v>0.6799054386940317</v>
       </c>
     </row>
     <row r="28">
